--- a/Project3710_Z. Ye(2020).xlsx
+++ b/Project3710_Z. Ye(2020).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/Finished &amp; Uploaded copy 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\neotrans\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B420C2F-2A67-8B4E-8961-F3CB039B3A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE24948-FAC6-49B2-AC61-6CB2C2876B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{81AE83EB-E836-BF4F-BBAA-1EB2591582DA}"/>
+    <workbookView xWindow="16455" yWindow="1950" windowWidth="15945" windowHeight="18375" xr2:uid="{81AE83EB-E836-BF4F-BBAA-1EB2591582DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Project3710" sheetId="1" r:id="rId1"/>
@@ -330,55 +330,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>33867</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>16932</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>7489</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>2418</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4EAC289-FB27-E262-CBF6-45CD096EA680}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7467600" y="304799"/>
-          <a:ext cx="10760156" cy="6688667"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -700,17 +651,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809D0959-4709-DE49-8CCD-872CF8E778E2}">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.33203125" customWidth="1"/>
-    <col min="2" max="3" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="83.375" customWidth="1"/>
+    <col min="2" max="3" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -721,7 +670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -732,7 +681,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -743,7 +692,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -754,7 +703,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -765,7 +714,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -776,7 +725,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -787,7 +736,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -798,7 +747,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -809,7 +758,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -820,7 +769,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -831,7 +780,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -842,7 +791,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -853,7 +802,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -864,7 +813,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -875,7 +824,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -886,7 +835,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -897,7 +846,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -908,7 +857,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -919,7 +868,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -930,7 +879,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -941,7 +890,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -952,7 +901,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -963,7 +912,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -974,7 +923,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -985,7 +934,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -996,7 +945,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1007,7 +956,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1018,7 +967,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1029,7 +978,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1040,7 +989,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1051,7 +1000,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1062,7 +1011,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1073,7 +1022,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1084,7 +1033,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1095,7 +1044,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1106,7 +1055,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1117,7 +1066,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1128,7 +1077,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1139,7 +1088,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1150,7 +1099,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1161,7 +1110,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1172,7 +1121,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1183,7 +1132,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1194,7 +1143,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1205,7 +1154,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1216,7 +1165,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1227,7 +1176,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1238,7 +1187,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1249,7 +1198,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1260,7 +1209,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1271,7 +1220,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1282,7 +1231,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1293,7 +1242,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1304,7 +1253,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -1315,7 +1264,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -1326,7 +1275,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -1337,7 +1286,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -1348,7 +1297,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -1359,7 +1308,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -1370,7 +1319,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -1381,7 +1330,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -1392,7 +1341,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -1403,7 +1352,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -1414,7 +1363,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -1425,7 +1374,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -1439,6 +1388,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>